--- a/ferramentas da Central.xlsx
+++ b/ferramentas da Central.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,84 +484,32 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>chave de fenda</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>bosch</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12dsf23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>20 cm</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>aço</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>furadeira</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>bosch</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>12dsf23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20 cm</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>aço</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>eletrico</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4">
@@ -577,7 +525,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>92</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +541,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
@@ -609,7 +557,7 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +573,7 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
@@ -641,14 +589,18 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -657,107 +609,7 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>4134</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/ferramentas da Central.xlsx
+++ b/ferramentas da Central.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
@@ -525,91 +525,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1213</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
